--- a/packet_capture/output.xlsx
+++ b/packet_capture/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45493.68088619265</v>
+        <v>45493.78134548579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45493.68088621239</v>
+        <v>45493.78134752243</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>183.232.166.86</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45493.68088621357</v>
+        <v>45493.78134933952</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.64.180.106</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -586,26 +586,26 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45493.68088666489</v>
+        <v>45493.78135034456</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>183.232.166.86</t>
+          <t>10.223.12.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45493.68088720523</v>
+        <v>45493.78135206387</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.223.2.172</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.223.15.255</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -656,22 +656,26 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45493.6808890355</v>
+        <v>45493.78135496469</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UDP</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -687,11 +691,11 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45493.68089200935</v>
+        <v>45493.78135981904</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,7 +705,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.223.11.42</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -722,11 +726,11 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45493.68089303453</v>
+        <v>45493.78136175576</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -736,12 +740,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.223.2.172</t>
+          <t>10.223.12.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.223.15.255</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -757,11 +761,11 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45493.68089323019</v>
+        <v>45493.78136176315</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -771,12 +775,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.223.14.63</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>239.255.255.250</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -792,11 +796,11 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45493.6808962448</v>
+        <v>45493.7813627338</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -806,7 +810,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.223.5.133</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -827,7 +831,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45493.68089884698</v>
+        <v>45493.78136515246</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -862,11 +866,11 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45493.68090370409</v>
+        <v>45493.7813682565</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -876,12 +880,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10.223.11.42</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>239.255.255.250</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -897,26 +901,26 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45493.68090471628</v>
+        <v>45493.7813684827</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10.223.2.172</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.223.15.255</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -932,26 +936,26 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45493.68090483215</v>
+        <v>45493.78136871896</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.223.14.63</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>239.255.255.250</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -967,26 +971,26 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45493.68090491585</v>
+        <v>45493.78136872061</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.223.5.133</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.223.15.255</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1002,26 +1006,26 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45493.68090744517</v>
+        <v>45493.78136872227</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.223.13.27</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>239.255.255.250</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1037,26 +1041,26 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45493.68091061444</v>
+        <v>45493.78136896008</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.223.2.172</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.223.15.255</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1072,11 +1076,11 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45493.68091349037</v>
+        <v>45493.78136896008</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1086,12 +1090,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1107,26 +1111,26 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45493.68091360934</v>
+        <v>45493.78136896132</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.223.5.133</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10.223.15.255</t>
+          <t>36.155.132.3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1142,26 +1146,26 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45493.68091378852</v>
+        <v>45493.78137419961</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>10.223.12.22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1177,26 +1181,26 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45493.68091379021</v>
+        <v>45493.78137419961</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1212,16 +1216,16 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45493.6809137919</v>
+        <v>45493.78137590047</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1231,7 +1235,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1247,26 +1251,26 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45493.68091407372</v>
+        <v>45493.78138012528</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1282,26 +1286,26 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45493.68091407372</v>
+        <v>45493.78138129926</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>10.223.5.133</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1317,16 +1321,16 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45493.68091407494</v>
+        <v>45493.78138228931</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1336,7 +1340,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>36.155.132.76</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1352,22 +1356,26 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45493.68091471952</v>
+        <v>45493.78138407992</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UDP</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1383,11 +1391,11 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45493.68091538142</v>
+        <v>45493.78138604285</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1397,12 +1405,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.223.11.42</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>239.255.255.250</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1418,7 +1426,7 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45493.68091656112</v>
+        <v>45493.78138604921</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1432,7 +1440,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10.223.14.63</t>
+          <t>10.223.12.22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1453,26 +1461,26 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45493.6809165925</v>
+        <v>45493.78138679569</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.12.12.12</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1488,11 +1496,11 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45493.68091738125</v>
+        <v>45493.78138834229</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1502,12 +1510,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10.223.13.49</t>
+          <t>10.223.6.96</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>224.0.0.251</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1523,11 +1531,11 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45493.68091738917</v>
+        <v>45493.78138986584</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1537,12 +1545,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.223.14.104</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1558,22 +1566,26 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45493.6809185181</v>
+        <v>45493.78139078231</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UDP</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1589,11 +1601,11 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45493.68091908698</v>
+        <v>45493.7813931461</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1603,7 +1615,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.223.13.27</t>
+          <t>10.223.5.133</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1624,16 +1636,16 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45493.68092174272</v>
+        <v>45493.78139455798</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1643,7 +1655,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>183.232.166.86</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1659,26 +1671,22 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45493.68092174375</v>
+        <v>45493.78139552391</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>872</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.223.14.104</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>183.232.166.86</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1694,22 +1702,26 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45493.68092194833</v>
+        <v>45493.78139671616</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>UDP</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10.223.13.49</t>
+          <t>10.223.2.172</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>224.0.0.2</t>
+          <t>10.223.15.255</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1725,573 +1737,29 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45493.68092196218</v>
+        <v>45493.78139789552</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>UDP</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10.223.13.49</t>
+          <t>10.223.5.133</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>224.0.0.251</t>
+          <t>239.255.255.250</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>45493.68092220134</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>183.232.166.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45493.68092220134</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>183.232.166.86</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>45493.68092364522</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>45493.68092900325</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>UDP</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>10.223.13.49</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>224.0.0.251</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>45493.68092902529</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>UDP</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>45493.68093012964</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>45493.68093083919</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>UDP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>10.223.13.27</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>239.255.255.250</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>45493.68093390295</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>183.232.166.86</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>45493.68093451668</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>183.232.166.86</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>45493.68093533327</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>45493.68093595111</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>221.131.165.223</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>45493.68093620108</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>221.131.165.223</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>45493.68093782771</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>UDP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>239.255.255.250</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>45493.68094254166</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>UDP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>10.223.13.27</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>239.255.255.250</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>45493.68094914981</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>TCP</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>36.155.132.76</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>详见pcapng文件</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>45493.68094953655</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>UDP</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>10.223.14.104</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>239.255.255.250</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t>详见pcapng文件</t>
         </is>
